--- a/summary models.xlsx
+++ b/summary models.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26160" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="240" windowWidth="24560" windowHeight="15380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Neighbors" sheetId="1" r:id="rId1"/>
     <sheet name="Homophones" sheetId="2" r:id="rId2"/>
     <sheet name="real_words" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="45">
   <si>
     <t>nphone1</t>
   </si>
@@ -133,12 +134,6 @@
     <t>ø</t>
   </si>
   <si>
-    <t>Clustering coeff</t>
-  </si>
-  <si>
-    <t>0.2154</t>
-  </si>
-  <si>
     <t>wuggy</t>
   </si>
   <si>
@@ -148,7 +143,31 @@
     <t>permutation (1-4 homophones)</t>
   </si>
   <si>
-    <t>0.1743</t>
+    <t>all_smoothed</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>one LM/length</t>
+  </si>
+  <si>
+    <t>efaultdict(&lt;type 'int'&gt;, {1: 4, 2: 152, 3: 1396, 4: 1836, 5: 1326, 6: 781, 7: 434, 8: 179, 9: 55, 10: 24, 11: 8, 12: 2})</t>
+  </si>
+  <si>
+    <t>defaultdict(&lt;type 'int'&gt;, {1: 3, 2: 109, 3: 1031, 4: 500, 5: 120, 6: 11, 7: 6})</t>
+  </si>
+  <si>
+    <t>i=11</t>
+  </si>
+  <si>
+    <t>without smoothing</t>
+  </si>
+  <si>
+    <t>i=10</t>
+  </si>
+  <si>
+    <t>w smoothing</t>
   </si>
 </sst>
 </file>
@@ -216,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +248,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -247,8 +272,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -319,16 +446,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -366,7 +496,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,20 +503,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="76">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -422,6 +616,9 @@
     <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -456,6 +653,9 @@
     <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -786,837 +986,923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" s="5" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="M2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="B3" s="5">
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25">
         <v>21385</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="26">
         <v>20288</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="26">
         <v>7280</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="E3" s="26">
+        <v>22523</v>
+      </c>
+      <c r="F3" s="26">
+        <v>22523</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25">
         <v>21385</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="26">
         <v>20288</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="27">
         <v>7280</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="7" t="s">
+      <c r="B4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="1"/>
+      <c r="K4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="7" t="s">
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
+      <c r="B5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="K5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="7" t="s">
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="L6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
+      <c r="D7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="7" t="s">
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="7" t="s">
+      <c r="B8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="K8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="7" t="s">
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="7" t="s">
+      <c r="B9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="7" t="s">
+      <c r="K9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="I10" s="7" t="s">
+      <c r="B10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="7" t="s">
+      <c r="K10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7" t="s">
+      <c r="B11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="7" t="s">
+      <c r="K11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1"/>
+      <c r="B12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="7" t="s">
+      <c r="K12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="7" t="s">
+      <c r="K13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="16" thickBot="1">
+      <c r="A15" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" spans="1:16" ht="16" thickBot="1"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="F17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="J17" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="L17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="M17" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="B18" s="4"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="24"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="B19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="1"/>
+      <c r="K19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="7" t="s">
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="K20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="7" t="s">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="B21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="1"/>
+      <c r="K21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="7" t="s">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="C22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M22" s="1"/>
+      <c r="L22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>15</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="7" t="s">
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="7" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="B24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="7" t="s">
+      <c r="K24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="D25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="8"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="7" t="s">
+      <c r="M25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7" t="s">
+      <c r="B26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="7" t="s">
+      <c r="K26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="7" t="s">
+      <c r="B27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="7" t="s">
+      <c r="K27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="B28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="8"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="K28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" ht="16" thickBot="1">
+      <c r="A29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1645,437 +1931,437 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="19"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>511</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>1090</v>
       </c>
-      <c r="D4" s="15">
-        <f>C4/B4</f>
+      <c r="D4" s="14">
+        <f t="shared" ref="D4:D14" si="0">C4/B4</f>
         <v>2.13307240704501</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>463</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>974</v>
       </c>
-      <c r="G4" s="15">
-        <f>F4/E4</f>
+      <c r="G4" s="14">
+        <f t="shared" ref="G4:G14" si="1">F4/E4</f>
         <v>2.1036717062634991</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>218</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>455</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f>I4/H4</f>
         <v>2.0871559633027523</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>111</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>235</v>
       </c>
-      <c r="D5" s="13">
-        <f>C5/B5</f>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
         <v>2.1171171171171173</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>89</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>184</v>
       </c>
-      <c r="G5" s="13">
-        <f>F5/E5</f>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
         <v>2.0674157303370788</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
-        <v>15</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="3">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12">
         <f>I5/H5</f>
         <v>2.1428571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>507</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1394</v>
       </c>
-      <c r="D6" s="13">
-        <f>C6/B6</f>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
         <v>2.749506903353057</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>479</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1286</v>
       </c>
-      <c r="G6" s="13">
-        <f>F6/E6</f>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
         <v>2.684759916492693</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>214</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>520</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" ref="J6:J14" si="0">I6/H6</f>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J14" si="2">I6/H6</f>
         <v>2.4299065420560746</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>767</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1925</v>
       </c>
-      <c r="D7" s="13">
-        <f>C7/B7</f>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
         <v>2.5097783572359842</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>726</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>1800</v>
       </c>
-      <c r="G7" s="13">
-        <f>F7/E7</f>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
         <v>2.4793388429752068</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>391</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>931</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3810741687979537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1229</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3031</v>
+      </c>
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>2.3810741687979537</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1229</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3031</v>
-      </c>
-      <c r="D8" s="13">
-        <f>C8/B8</f>
         <v>2.466232709519935</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>1167</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>2854</v>
       </c>
-      <c r="G8" s="13">
-        <f>F8/E8</f>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
         <v>2.4455869751499573</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>750</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>1790</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
+        <f t="shared" si="2"/>
+        <v>2.3866666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1681</v>
+      </c>
+      <c r="C9" s="11">
+        <v>4185</v>
+      </c>
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>2.3866666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1681</v>
-      </c>
-      <c r="C9" s="12">
-        <v>4185</v>
-      </c>
-      <c r="D9" s="13">
-        <f>C9/B9</f>
         <v>2.4895895300416417</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>1630</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>4024</v>
       </c>
-      <c r="G9" s="13">
-        <f>F9/E9</f>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
         <v>2.4687116564417177</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>1172</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>2836</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4197952218430032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11">
+        <v>799</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2160</v>
+      </c>
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.4197952218430032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12">
-        <v>799</v>
-      </c>
-      <c r="C10" s="12">
-        <v>2160</v>
-      </c>
-      <c r="D10" s="13">
-        <f>C10/B10</f>
         <v>2.7033792240300376</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>758</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>2043</v>
       </c>
-      <c r="G10" s="13">
-        <f>F10/E10</f>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
         <v>2.6952506596306067</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="16">
         <v>420</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>1027</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4452380952380954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1609</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4063</v>
+      </c>
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.4452380952380954</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1609</v>
-      </c>
-      <c r="C11" s="12">
-        <v>4063</v>
-      </c>
-      <c r="D11" s="13">
-        <f>C11/B11</f>
         <v>2.5251709136109386</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>1557</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>3917</v>
       </c>
-      <c r="G11" s="13">
-        <f>F11/E11</f>
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
         <v>2.5157353885677587</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1121</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>2776</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
+        <f t="shared" si="2"/>
+        <v>2.4763603925066904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11">
+        <v>389</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>2.4763603925066904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12">
-        <v>389</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1002</v>
-      </c>
-      <c r="D12" s="13">
-        <f>C12/B12</f>
         <v>2.5758354755784061</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>359</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>911</v>
       </c>
-      <c r="G12" s="13">
-        <f>F12/E12</f>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
         <v>2.5376044568245124</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>74</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>154</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
+        <f t="shared" si="2"/>
+        <v>2.0810810810810811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="11">
+        <v>437</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1136</v>
+      </c>
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>2.0810810810810811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12">
-        <v>437</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1136</v>
-      </c>
-      <c r="D13" s="13">
-        <f>C13/B13</f>
         <v>2.5995423340961099</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>402</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>1044</v>
       </c>
-      <c r="G13" s="13">
-        <f>F13/E13</f>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
         <v>2.5970149253731343</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>119</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>255</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
+        <f t="shared" si="2"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11">
+        <v>662</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1812</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>2.1428571428571428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12">
-        <v>662</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1812</v>
-      </c>
-      <c r="D14" s="13">
-        <f>C14/B14</f>
         <v>2.7371601208459215</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>620</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>1700</v>
       </c>
-      <c r="G14" s="13">
-        <f>F14/E14</f>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
         <v>2.7419354838709675</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>311</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>716</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" si="0"/>
+      <c r="J14" s="12">
+        <f t="shared" si="2"/>
         <v>2.302250803858521</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2099,45 +2385,45 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>6104</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>5952</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>4556</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f>75/B$3</f>
         <v>1.2287024901703801E-2</v>
       </c>
@@ -2151,10 +2437,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>780/B$3</f>
         <v>0.12778505897771952</v>
       </c>
@@ -2168,10 +2454,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f>1550/B$3</f>
         <v>0.25393184796854523</v>
       </c>
@@ -2185,10 +2471,10 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <f>3220/B$3</f>
         <v>0.52752293577981646</v>
       </c>
@@ -2202,10 +2488,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>5075/B$3</f>
         <v>0.83142201834862384</v>
       </c>
@@ -2219,27 +2505,27 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <f>530/B$3</f>
         <v>8.6828309305373524E-2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <f>500/C$3</f>
         <v>8.4005376344086016E-2</v>
       </c>
@@ -2249,14 +2535,14 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <f>620/B$3</f>
         <v>0.10157273918741809</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>570/C$3</f>
         <v>9.5766129032258063E-2</v>
       </c>
@@ -2266,14 +2552,14 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <f>1050/B$3</f>
         <v>0.17201834862385321</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f>990/C$3</f>
         <v>0.16633064516129031</v>
       </c>
@@ -2283,32 +2569,32 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7">
         <f>3700/B3</f>
         <v>0.60615989515072088</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <f>3530/C3</f>
         <v>0.59307795698924726</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2319,4 +2605,221 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1396</v>
+      </c>
+      <c r="C6">
+        <v>1045</v>
+      </c>
+      <c r="D6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1836</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1326</v>
+      </c>
+      <c r="C8">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>781</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>434</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>179</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16">
+        <f>SUM(B4:B15)</f>
+        <v>6197</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C4:C15)</f>
+        <v>1784</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D4:D15)</f>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <f>C16/B16</f>
+        <v>0.28788123285460709</v>
+      </c>
+      <c r="D17">
+        <f>D16/B16</f>
+        <v>0.40503469420687427</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/summary models.xlsx
+++ b/summary models.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="240" windowWidth="24560" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25840" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Neighbors" sheetId="1" r:id="rId1"/>
-    <sheet name="Homophones" sheetId="2" r:id="rId2"/>
-    <sheet name="real_words" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
+    <sheet name="languages" sheetId="5" r:id="rId1"/>
+    <sheet name="Neighbors" sheetId="1" r:id="rId2"/>
+    <sheet name="Homophones" sheetId="2" r:id="rId3"/>
+    <sheet name="real_words" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="57">
   <si>
     <t>nphone1</t>
   </si>
@@ -168,6 +169,42 @@
   </si>
   <si>
     <t>w smoothing</t>
+  </si>
+  <si>
+    <t>nphone6</t>
+  </si>
+  <si>
+    <t>TOT words</t>
+  </si>
+  <si>
+    <t>NEIGHBORS</t>
+  </si>
+  <si>
+    <t>neigh/word</t>
+  </si>
+  <si>
+    <t>best according to evaluation</t>
+  </si>
+  <si>
+    <t>all lemmas</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>German_stem</t>
   </si>
 </sst>
 </file>
@@ -235,7 +272,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +418,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,8 +495,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,8 +695,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="148">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -619,6 +751,42 @@
     <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -656,6 +824,42 @@
     <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -986,10 +1190,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="22"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="26">
+        <v>22523</v>
+      </c>
+      <c r="C3" s="5">
+        <v>16637</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5410</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6794</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8187</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="26">
+        <v>6197</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5343</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4121</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4044</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5622</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="52">
+        <f>B3/B4</f>
+        <v>3.6345005647894144</v>
+      </c>
+      <c r="C5" s="52">
+        <f t="shared" ref="C5:G5" si="0">C3/C4</f>
+        <v>3.1137937488302452</v>
+      </c>
+      <c r="D5" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3127881582140257</v>
+      </c>
+      <c r="E5" s="52">
+        <f t="shared" si="0"/>
+        <v>1.6800197823936696</v>
+      </c>
+      <c r="F5" s="52">
+        <f t="shared" si="0"/>
+        <v>1.4562433297758806</v>
+      </c>
+      <c r="G5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.31182134808440892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="50"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="26">
+        <v>22523</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="26">
+        <v>6197</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="52">
+        <f>B14/B15</f>
+        <v>3.6345005647894144</v>
+      </c>
+      <c r="C16" s="52">
+        <f t="shared" ref="C16" si="1">C14/C15</f>
+        <v>1.4562433297758806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="26">
+        <v>37316</v>
+      </c>
+      <c r="C26" s="5">
+        <v>24542</v>
+      </c>
+      <c r="D26" s="5">
+        <v>12821</v>
+      </c>
+      <c r="E26" s="5">
+        <v>41947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="26">
+        <v>29490</v>
+      </c>
+      <c r="C27" s="5">
+        <v>29712</v>
+      </c>
+      <c r="D27" s="5">
+        <v>25515</v>
+      </c>
+      <c r="E27" s="5">
+        <v>31441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="52">
+        <f>B26/B27</f>
+        <v>1.2653780942692439</v>
+      </c>
+      <c r="C28" s="52">
+        <f t="shared" ref="C28:E28" si="2">C26/C27</f>
+        <v>0.82599623047926762</v>
+      </c>
+      <c r="D28" s="52">
+        <f>D26/D27</f>
+        <v>0.50248873211836176</v>
+      </c>
+      <c r="E28" s="52">
+        <f t="shared" si="2"/>
+        <v>1.3341496771731178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="51"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1915,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
@@ -2374,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -2607,7 +3300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
